--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22802,6 +22802,216 @@
         <v>377.1533333333333</v>
       </c>
       <c r="K625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="n">
+        <v>371.57</v>
+      </c>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>349.5285714285715</v>
+      </c>
+      <c r="C627" t="n">
+        <v>348.1</v>
+      </c>
+      <c r="D627" t="n">
+        <v>358.1169230769231</v>
+      </c>
+      <c r="E627" t="n">
+        <v>347.9866666666667</v>
+      </c>
+      <c r="F627" t="n">
+        <v>348.0669230769231</v>
+      </c>
+      <c r="G627" t="n">
+        <v>364.7166666666667</v>
+      </c>
+      <c r="H627" t="n">
+        <v>358.6018181818182</v>
+      </c>
+      <c r="I627" t="n">
+        <v>360.6233333333333</v>
+      </c>
+      <c r="J627" t="n">
+        <v>376.7966666666667</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>334.4</v>
+      </c>
+      <c r="C628" t="n">
+        <v>349.29</v>
+      </c>
+      <c r="D628" t="n">
+        <v>344.9415384615385</v>
+      </c>
+      <c r="E628" t="n">
+        <v>343.82</v>
+      </c>
+      <c r="F628" t="n">
+        <v>342.9315384615385</v>
+      </c>
+      <c r="G628" t="n">
+        <v>352.45</v>
+      </c>
+      <c r="H628" t="n">
+        <v>358.5663636363636</v>
+      </c>
+      <c r="I628" t="n">
+        <v>364.44</v>
+      </c>
+      <c r="J628" t="n">
+        <v>370.51</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>323.1657142857143</v>
+      </c>
+      <c r="C629" t="n">
+        <v>325.33</v>
+      </c>
+      <c r="D629" t="n">
+        <v>323.1723076923077</v>
+      </c>
+      <c r="E629" t="n">
+        <v>326.29</v>
+      </c>
+      <c r="F629" t="n">
+        <v>337.5723076923077</v>
+      </c>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>349.6371428571428</v>
+      </c>
+      <c r="C630" t="n">
+        <v>349.88</v>
+      </c>
+      <c r="D630" t="n">
+        <v>358.6346153846154</v>
+      </c>
+      <c r="E630" t="n">
+        <v>354.23</v>
+      </c>
+      <c r="F630" t="n">
+        <v>358.8546153846154</v>
+      </c>
+      <c r="G630" t="n">
+        <v>360.83</v>
+      </c>
+      <c r="H630" t="n">
+        <v>369.5572727272727</v>
+      </c>
+      <c r="I630" t="n">
+        <v>370.54</v>
+      </c>
+      <c r="J630" t="n">
+        <v>371.86</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>339.9514285714285</v>
+      </c>
+      <c r="C631" t="n">
+        <v>340.05</v>
+      </c>
+      <c r="D631" t="n">
+        <v>349.4084615384616</v>
+      </c>
+      <c r="E631" t="n">
+        <v>339.7733333333333</v>
+      </c>
+      <c r="F631" t="n">
+        <v>346.1984615384616</v>
+      </c>
+      <c r="G631" t="n">
+        <v>360.7133333333333</v>
+      </c>
+      <c r="H631" t="n">
+        <v>359.6090909090909</v>
+      </c>
+      <c r="I631" t="n">
+        <v>363.6566666666666</v>
+      </c>
+      <c r="J631" t="n">
+        <v>375.1033333333333</v>
+      </c>
+      <c r="K631" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22818,7 +23028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29616,6 +29826,86 @@
       </c>
       <c r="B679" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -29784,28 +30074,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08432062256094</v>
+        <v>-0.07020308410182487</v>
       </c>
       <c r="J2" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K2" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001133581531183925</v>
+        <v>0.0007975601090254303</v>
       </c>
       <c r="M2" t="n">
-        <v>12.78404434396474</v>
+        <v>12.74755190518507</v>
       </c>
       <c r="N2" t="n">
-        <v>274.5400585379478</v>
+        <v>273.1805897217671</v>
       </c>
       <c r="O2" t="n">
-        <v>16.56925039155205</v>
+        <v>16.52817563198574</v>
       </c>
       <c r="P2" t="n">
-        <v>334.8276787569324</v>
+        <v>334.6669630152936</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29861,28 +30151,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1299403448288688</v>
+        <v>-0.136887912479296</v>
       </c>
       <c r="J3" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K3" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009813102710876653</v>
+        <v>0.01094871248680029</v>
       </c>
       <c r="M3" t="n">
-        <v>6.675860630626917</v>
+        <v>6.68283914387001</v>
       </c>
       <c r="N3" t="n">
-        <v>73.30894261394303</v>
+        <v>73.54088228709284</v>
       </c>
       <c r="O3" t="n">
-        <v>8.562064156145002</v>
+        <v>8.575598071685311</v>
       </c>
       <c r="P3" t="n">
-        <v>349.253252171615</v>
+        <v>349.3327726988236</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -29938,28 +30228,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0350266915881521</v>
+        <v>-0.04435400671004087</v>
       </c>
       <c r="J4" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K4" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008906774377057669</v>
+        <v>0.001412097096769815</v>
       </c>
       <c r="M4" t="n">
-        <v>6.026288979225577</v>
+        <v>6.065628514715377</v>
       </c>
       <c r="N4" t="n">
-        <v>60.51320607370327</v>
+        <v>61.7278218397863</v>
       </c>
       <c r="O4" t="n">
-        <v>7.77902346530098</v>
+        <v>7.856705533478157</v>
       </c>
       <c r="P4" t="n">
-        <v>352.4682562791239</v>
+        <v>352.5741749798368</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30015,28 +30305,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1290838130948342</v>
+        <v>-0.1235644902024249</v>
       </c>
       <c r="J5" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01139676415987456</v>
+        <v>0.01031834669626985</v>
       </c>
       <c r="M5" t="n">
-        <v>6.104008044291025</v>
+        <v>6.155687882871526</v>
       </c>
       <c r="N5" t="n">
-        <v>64.20666914656422</v>
+        <v>65.72553498728159</v>
       </c>
       <c r="O5" t="n">
-        <v>8.012906410695448</v>
+        <v>8.107128652444192</v>
       </c>
       <c r="P5" t="n">
-        <v>348.1227752999813</v>
+        <v>348.0610287235022</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30092,28 +30382,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1978136028673351</v>
+        <v>-0.1963175432973699</v>
       </c>
       <c r="J6" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K6" t="n">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02465736464157642</v>
+        <v>0.02456426514946031</v>
       </c>
       <c r="M6" t="n">
-        <v>6.251024577465087</v>
+        <v>6.24184082220333</v>
       </c>
       <c r="N6" t="n">
-        <v>68.19014591540612</v>
+        <v>68.01699449066972</v>
       </c>
       <c r="O6" t="n">
-        <v>8.257732492361697</v>
+        <v>8.247241629215777</v>
       </c>
       <c r="P6" t="n">
-        <v>350.9897465240383</v>
+        <v>350.9726907035937</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30169,28 +30459,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2363312322394362</v>
+        <v>-0.2271672588111569</v>
       </c>
       <c r="J7" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K7" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03540441850626619</v>
+        <v>0.03308335155296926</v>
       </c>
       <c r="M7" t="n">
-        <v>6.291878252036569</v>
+        <v>6.290496133247854</v>
       </c>
       <c r="N7" t="n">
-        <v>67.17260560372684</v>
+        <v>67.05174374870656</v>
       </c>
       <c r="O7" t="n">
-        <v>8.195889555364129</v>
+        <v>8.188512914364033</v>
       </c>
       <c r="P7" t="n">
-        <v>359.9785725657892</v>
+        <v>359.8742864997294</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30246,28 +30536,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2508984174897852</v>
+        <v>-0.2436594320493909</v>
       </c>
       <c r="J8" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K8" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03538262913299473</v>
+        <v>0.0337864932498575</v>
       </c>
       <c r="M8" t="n">
-        <v>6.734440716901203</v>
+        <v>6.714462200885767</v>
       </c>
       <c r="N8" t="n">
-        <v>76.16811538461529</v>
+        <v>75.88768303130368</v>
       </c>
       <c r="O8" t="n">
-        <v>8.727434639378016</v>
+        <v>8.711353685352448</v>
       </c>
       <c r="P8" t="n">
-        <v>363.4954461911421</v>
+        <v>363.4130948441006</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -30323,28 +30613,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1259473384851941</v>
+        <v>-0.1199648283307516</v>
       </c>
       <c r="J9" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K9" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009929584190811469</v>
+        <v>0.009123834444775492</v>
       </c>
       <c r="M9" t="n">
-        <v>6.416272169478318</v>
+        <v>6.396699113281829</v>
       </c>
       <c r="N9" t="n">
-        <v>70.29667251924012</v>
+        <v>69.95699501978619</v>
       </c>
       <c r="O9" t="n">
-        <v>8.38431109389675</v>
+        <v>8.364029831354392</v>
       </c>
       <c r="P9" t="n">
-        <v>364.2741482650614</v>
+        <v>364.2062269618968</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -30400,28 +30690,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1117481131104407</v>
+        <v>-0.1073245424396403</v>
       </c>
       <c r="J10" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K10" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006635159999905937</v>
+        <v>0.006203796574362541</v>
       </c>
       <c r="M10" t="n">
-        <v>6.716609449149045</v>
+        <v>6.68857081433585</v>
       </c>
       <c r="N10" t="n">
-        <v>83.88825952044759</v>
+        <v>83.35661519273664</v>
       </c>
       <c r="O10" t="n">
-        <v>9.159053418364126</v>
+        <v>9.129984402655715</v>
       </c>
       <c r="P10" t="n">
-        <v>373.5472809474758</v>
+        <v>373.4973523109043</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -30458,7 +30748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62047,6 +62337,300 @@
         </is>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-45.26188656446499,170.85978758873625</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-45.26043705978425,170.86137941379943</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-45.26090510621534,170.86076465412583</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-45.26134376164887,170.860136376669</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-45.261772451719594,170.85953423978654</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-45.26232760211989,170.8591384624609</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-45.2629697121889,170.85907026748214</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-45.26354369214428,170.85875379125926</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-45.264141388785,170.85870126981197</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>-45.264741079572126,170.8589871730607</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-45.2603450420864,170.86123735929644</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-45.260913125548086,170.86077470187774</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-45.26125862058973,170.86001955335584</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-45.26175229040043,170.85948947859487</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-45.26230932792506,170.85907836250257</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-45.26293567457963,170.8589215836862</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-45.263543626791844,170.85875334907598</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>-45.26414210480441,170.85874989186345</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-45.2647451118443,170.85890727018344</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-45.26027671079851,170.86113187171782</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-45.260751660501164,170.86057239642466</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-45.26111794472189,170.85982653101473</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-45.26166746751181,170.85930115966082</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-45.26229025714375,170.85901564289085</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-45.26043772015616,170.86138043326682</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-45.260917101519475,170.8607796835373</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-45.261347107041956,170.86014096694294</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-45.261802661408346,170.85960131001622</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-45.26236598987224,170.8592647121126</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-45.262958927467025,170.85902315732469</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-45.26356388596507,170.85889042594206</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-45.264143249141775,170.85882760222063</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-45.26474424595814,170.85892442854333</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-45.260378807996,170.86128948613614</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-45.260850857765796,170.8606966841134</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-45.261287486443855,170.8600591605668</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-45.26173270971094,170.85944600655623</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-45.26232095322906,170.85911659565002</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-45.26295860374009,170.85902174321217</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-45.26354554882297,170.85876635379987</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-45.264141957850136,170.85873991266496</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-45.264742165682776,170.85896565097167</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -29919,7 +29919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30010,35 +30010,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30097,27 +30102,28 @@
       <c r="P2" t="n">
         <v>334.6669630152936</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.8580975223294 -45.25831105137594, 170.86637508150346 -45.26367277259788)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8580975223294</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.25831105137594</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8663750815035</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.26367277259788</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8622363019164</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.26099191198691</v>
       </c>
     </row>
@@ -30174,27 +30180,28 @@
       <c r="P3" t="n">
         <v>349.3327726988236</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.85782559673925 -45.258559246731416, 170.86526808529035 -45.26449908393193)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8578255967392</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.25855924673142</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8652680852904</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.26449908393193</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8615468410148</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.26152916533167</v>
       </c>
     </row>
@@ -30251,27 +30258,28 @@
       <c r="P4" t="n">
         <v>352.5741749798368</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.85696115485345 -45.259029522567644, 170.86477710528825 -45.2647256354502)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.8569611548535</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.25902952256764</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8647771052883</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.2647256354502</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.8608691300709</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.26187757900892</v>
       </c>
     </row>
@@ -30328,27 +30336,28 @@
       <c r="P5" t="n">
         <v>348.0610287235022</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.8557960388744 -45.26008858416067, 170.86526778242512 -45.264354691494475)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.8557960388744</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.26008858416067</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.8652677824251</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.26435469149447</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.8605319106497</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.26222163782757</v>
       </c>
     </row>
@@ -30405,27 +30414,28 @@
       <c r="P6" t="n">
         <v>350.9726907035937</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.85506508732317 -45.26108894068025, 170.86538499359798 -45.26422670876911)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.8550650873232</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.26108894068025</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.865384993598</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.26422670876911</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.8602250404606</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.26265782472468</v>
       </c>
     </row>
@@ -30482,27 +30492,28 @@
       <c r="P7" t="n">
         <v>359.8742864997294</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.8546496294573 -45.26195761311096, 170.86533860913462 -45.264404487759194)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.8546496294573</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.26195761311096</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.8653386091346</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.26440448775919</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.8599941192959</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.26318105043508</v>
       </c>
     </row>
@@ -30559,27 +30570,28 @@
       <c r="P8" t="n">
         <v>363.4130948441006</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.8542814232675 -45.26288260412649, 170.86528036077775 -45.264508083877196)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.8542814232675</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.26288260412649</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.8652803607777</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.2645080838772</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.8597808920226</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.26369534400185</v>
       </c>
     </row>
@@ -30636,27 +30648,28 @@
       <c r="P9" t="n">
         <v>364.2062269618968</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.85410715313043 -45.264073641307256, 170.86534242251085 -45.26423899605053)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.8541071531304</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.26407364130726</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.8653424225108</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.26423899605053</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.8597247878207</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.26415631867889</v>
       </c>
     </row>
@@ -30713,27 +30726,28 @@
       <c r="P10" t="n">
         <v>373.4973523109043</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.8541981103959 -45.264982658034135, 170.86540721894724 -45.26441690905862)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.8541981103959</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.26498265803414</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.8654072189472</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.26441690905862</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.8598026646716</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.26469978354638</v>
       </c>
     </row>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K631"/>
+  <dimension ref="A1:K636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23012,6 +23012,201 @@
         <v>375.1033333333333</v>
       </c>
       <c r="K631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>344.1585714285715</v>
+      </c>
+      <c r="C632" t="n">
+        <v>354.86</v>
+      </c>
+      <c r="D632" t="n">
+        <v>357.0923076923077</v>
+      </c>
+      <c r="E632" t="n">
+        <v>350.17</v>
+      </c>
+      <c r="F632" t="n">
+        <v>354.0923076923077</v>
+      </c>
+      <c r="G632" t="n">
+        <v>370.61</v>
+      </c>
+      <c r="H632" t="n">
+        <v>369.6636363636364</v>
+      </c>
+      <c r="I632" t="n">
+        <v>370.69</v>
+      </c>
+      <c r="J632" t="n">
+        <v>380.6</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>333.9042857142857</v>
+      </c>
+      <c r="C633" t="n">
+        <v>343.4</v>
+      </c>
+      <c r="D633" t="n">
+        <v>345.4569230769231</v>
+      </c>
+      <c r="E633" t="n">
+        <v>334.18</v>
+      </c>
+      <c r="F633" t="n">
+        <v>341.2869230769231</v>
+      </c>
+      <c r="G633" t="n">
+        <v>347.64</v>
+      </c>
+      <c r="H633" t="n">
+        <v>356.16</v>
+      </c>
+      <c r="I633" t="n">
+        <v>352.21</v>
+      </c>
+      <c r="J633" t="n">
+        <v>360.24</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="C634" t="n">
+        <v>351.76</v>
+      </c>
+      <c r="D634" t="n">
+        <v>360.8053846153846</v>
+      </c>
+      <c r="E634" t="n">
+        <v>354.8766666666667</v>
+      </c>
+      <c r="F634" t="n">
+        <v>350.0553846153846</v>
+      </c>
+      <c r="G634" t="n">
+        <v>367.2566666666667</v>
+      </c>
+      <c r="H634" t="n">
+        <v>362.5463636363637</v>
+      </c>
+      <c r="I634" t="n">
+        <v>368.5433333333333</v>
+      </c>
+      <c r="J634" t="n">
+        <v>383.5766666666667</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>319.8985714285715</v>
+      </c>
+      <c r="C635" t="n">
+        <v>344.44</v>
+      </c>
+      <c r="D635" t="n">
+        <v>347.3315384615385</v>
+      </c>
+      <c r="E635" t="n">
+        <v>340.25</v>
+      </c>
+      <c r="F635" t="n">
+        <v>339.4415384615385</v>
+      </c>
+      <c r="G635" t="n">
+        <v>346.78</v>
+      </c>
+      <c r="H635" t="n">
+        <v>351.5554545454545</v>
+      </c>
+      <c r="I635" t="n">
+        <v>359.71</v>
+      </c>
+      <c r="J635" t="n">
+        <v>360.97</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>337.3985714285715</v>
+      </c>
+      <c r="C636" t="n">
+        <v>351.77</v>
+      </c>
+      <c r="D636" t="n">
+        <v>353.9369230769231</v>
+      </c>
+      <c r="E636" t="n">
+        <v>350.7133333333333</v>
+      </c>
+      <c r="F636" t="n">
+        <v>358.1969230769231</v>
+      </c>
+      <c r="G636" t="n">
+        <v>365.7933333333333</v>
+      </c>
+      <c r="H636" t="n">
+        <v>373.1972727272728</v>
+      </c>
+      <c r="I636" t="n">
+        <v>367.3166666666667</v>
+      </c>
+      <c r="J636" t="n">
+        <v>374.8733333333333</v>
+      </c>
+      <c r="K636" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23028,7 +23223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29906,6 +30101,56 @@
       </c>
       <c r="B687" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -30079,28 +30324,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07020308410182487</v>
+        <v>-0.06463060123865771</v>
       </c>
       <c r="J2" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K2" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007975601090254303</v>
+        <v>0.0006876758693411533</v>
       </c>
       <c r="M2" t="n">
-        <v>12.74755190518507</v>
+        <v>12.69239379738166</v>
       </c>
       <c r="N2" t="n">
-        <v>273.1805897217671</v>
+        <v>271.2257501131942</v>
       </c>
       <c r="O2" t="n">
-        <v>16.52817563198574</v>
+        <v>16.46893287718406</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6669630152936</v>
+        <v>334.6030122722305</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30157,28 +30402,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.136887912479296</v>
+        <v>-0.1300281087726709</v>
       </c>
       <c r="J3" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K3" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01094871248680029</v>
+        <v>0.01004013825839711</v>
       </c>
       <c r="M3" t="n">
-        <v>6.68283914387001</v>
+        <v>6.664302945426031</v>
       </c>
       <c r="N3" t="n">
-        <v>73.54088228709284</v>
+        <v>73.14934770038727</v>
       </c>
       <c r="O3" t="n">
-        <v>8.575598071685311</v>
+        <v>8.552739192819296</v>
       </c>
       <c r="P3" t="n">
-        <v>349.3327726988236</v>
+        <v>349.253715003941</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30235,28 +30480,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04435400671004087</v>
+        <v>-0.04144761176381823</v>
       </c>
       <c r="J4" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001412097096769815</v>
+        <v>0.001249849533952463</v>
       </c>
       <c r="M4" t="n">
-        <v>6.065628514715377</v>
+        <v>6.060192507178948</v>
       </c>
       <c r="N4" t="n">
-        <v>61.7278218397863</v>
+        <v>61.48368917963084</v>
       </c>
       <c r="O4" t="n">
-        <v>7.856705533478157</v>
+        <v>7.841153561793752</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5741749798368</v>
+        <v>352.5409202593283</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30313,28 +30558,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1235644902024249</v>
+        <v>-0.1213440046635781</v>
       </c>
       <c r="J5" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K5" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01031834669626985</v>
+        <v>0.0100515261582208</v>
       </c>
       <c r="M5" t="n">
-        <v>6.155687882871526</v>
+        <v>6.166281504320919</v>
       </c>
       <c r="N5" t="n">
-        <v>65.72553498728159</v>
+        <v>65.66674412870275</v>
       </c>
       <c r="O5" t="n">
-        <v>8.107128652444192</v>
+        <v>8.103501966970992</v>
       </c>
       <c r="P5" t="n">
-        <v>348.0610287235022</v>
+        <v>348.0355948506459</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30391,28 +30636,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1963175432973699</v>
+        <v>-0.1910771561323033</v>
       </c>
       <c r="J6" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K6" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02456426514946031</v>
+        <v>0.02353589611238704</v>
       </c>
       <c r="M6" t="n">
-        <v>6.24184082220333</v>
+        <v>6.248701192804928</v>
       </c>
       <c r="N6" t="n">
-        <v>68.01699449066972</v>
+        <v>67.93455386405664</v>
       </c>
       <c r="O6" t="n">
-        <v>8.247241629215777</v>
+        <v>8.242242041098807</v>
       </c>
       <c r="P6" t="n">
-        <v>350.9726907035937</v>
+        <v>350.9124236116588</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30469,28 +30714,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2271672588111569</v>
+        <v>-0.2160465739815664</v>
       </c>
       <c r="J7" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K7" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03308335155296926</v>
+        <v>0.03000193368924797</v>
       </c>
       <c r="M7" t="n">
-        <v>6.290496133247854</v>
+        <v>6.333835100506202</v>
       </c>
       <c r="N7" t="n">
-        <v>67.05174374870656</v>
+        <v>67.71135457755778</v>
       </c>
       <c r="O7" t="n">
-        <v>8.188512914364033</v>
+        <v>8.228690939484711</v>
       </c>
       <c r="P7" t="n">
-        <v>359.8742864997294</v>
+        <v>359.7464755713447</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30547,28 +30792,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2436594320493909</v>
+        <v>-0.2326588907947534</v>
       </c>
       <c r="J8" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K8" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0337864932498575</v>
+        <v>0.03110212990875083</v>
       </c>
       <c r="M8" t="n">
-        <v>6.714462200885767</v>
+        <v>6.72593879165974</v>
       </c>
       <c r="N8" t="n">
-        <v>75.88768303130368</v>
+        <v>76.06584171747127</v>
       </c>
       <c r="O8" t="n">
-        <v>8.711353685352448</v>
+        <v>8.721573351034277</v>
       </c>
       <c r="P8" t="n">
-        <v>363.4130948441006</v>
+        <v>363.2867435000322</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30625,28 +30870,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1199648283307516</v>
+        <v>-0.1148881702633237</v>
       </c>
       <c r="J9" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K9" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009123834444775492</v>
+        <v>0.008470388168276499</v>
       </c>
       <c r="M9" t="n">
-        <v>6.396699113281829</v>
+        <v>6.399020637644768</v>
       </c>
       <c r="N9" t="n">
-        <v>69.95699501978619</v>
+        <v>69.79394086619041</v>
       </c>
       <c r="O9" t="n">
-        <v>8.364029831354392</v>
+        <v>8.354276800908048</v>
       </c>
       <c r="P9" t="n">
-        <v>364.2062269618968</v>
+        <v>364.148115625874</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30703,28 +30948,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1073245424396403</v>
+        <v>-0.1048295518615676</v>
       </c>
       <c r="J10" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K10" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006203796574362541</v>
+        <v>0.005963500628644036</v>
       </c>
       <c r="M10" t="n">
-        <v>6.68857081433585</v>
+        <v>6.714667558563736</v>
       </c>
       <c r="N10" t="n">
-        <v>83.35661519273664</v>
+        <v>83.48430514616322</v>
       </c>
       <c r="O10" t="n">
-        <v>9.129984402655715</v>
+        <v>9.136974616696888</v>
       </c>
       <c r="P10" t="n">
-        <v>373.4973523109043</v>
+        <v>373.4689943854102</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30762,7 +31007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K631"/>
+  <dimension ref="A1:K636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62645,6 +62890,291 @@
         </is>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-45.260404397431046,170.86132899043446</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-45.26095066140529,170.86082173214902</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-45.2613371404543,170.86012729161135</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-45.26178301624403,170.85955769466378</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-45.262349043327866,170.8592089782353</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-45.26298606497254,170.8591417004148</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-45.26356408202079,170.85889175249287</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-45.26414327728057,170.8588295131311</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>-45.26473864008433,170.859035513026</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-45.26034202696161,170.86123270463827</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-45.26087343321222,170.86072496975507</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-45.26126195107469,170.86002412315426</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-45.2617056451071,170.85938591922482</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-45.262303475577504,170.85905911540027</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-45.26292232771505,170.85886328191108</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-45.26353919120092,170.85872333730612</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>-45.26413981034252,170.8585940889824</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>-45.26475169890835,170.8587767395352</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-45.26039278877895,170.86131106929508</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-45.26092977071506,170.8607955573046</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-45.26136113482503,170.86016021472446</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-45.26180579043958,170.8596082569635</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-45.262334678024345,170.8591617336507</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-45.262976760170055,170.85910105474767</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-45.26355096301086,170.8588029869896</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-45.264142874580344,170.8588021658791</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-45.264736730812686,170.85907334614282</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-45.26025683874948,170.8611011939816</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-45.26088044170766,170.86073375097374</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-45.261274065090895,170.86004074494795</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-45.26173501616861,170.85945112723138</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-45.26229690879084,170.8590375186799</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-45.26291994137028,170.85885285789604</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>-45.26353070373373,170.85866591018944</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-45.26414121743755,170.85868963449167</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>-45.264751230699396,170.85878601776125</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-45.26036328054633,170.86126551529404</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-45.26092983810439,170.86079564173954</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-45.26131674995437,170.86009931346655</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-45.261785645277634,170.85956353152775</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-45.262363649493366,170.859257015056</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-45.26297269971996,170.85908331772626</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>-45.26357059541879,170.85893582346458</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>-45.26414264446299,170.85878653887823</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>-45.26474231320537,170.85896272769574</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K636"/>
+  <dimension ref="A1:K641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23207,6 +23207,197 @@
         <v>374.8733333333333</v>
       </c>
       <c r="K636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr"/>
+      <c r="C637" t="n">
+        <v>352.17</v>
+      </c>
+      <c r="D637" t="n">
+        <v>354.5692307692308</v>
+      </c>
+      <c r="E637" t="n">
+        <v>350.8</v>
+      </c>
+      <c r="F637" t="n">
+        <v>353.6392307692308</v>
+      </c>
+      <c r="G637" t="n">
+        <v>373.23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>376.0136363636364</v>
+      </c>
+      <c r="I637" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="J637" t="n">
+        <v>383.97</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>321.5857142857143</v>
+      </c>
+      <c r="C638" t="n">
+        <v>338.58</v>
+      </c>
+      <c r="D638" t="n">
+        <v>347.7953846153846</v>
+      </c>
+      <c r="E638" t="n">
+        <v>342.4433333333333</v>
+      </c>
+      <c r="F638" t="n">
+        <v>344.6053846153847</v>
+      </c>
+      <c r="G638" t="n">
+        <v>358.5433333333333</v>
+      </c>
+      <c r="H638" t="n">
+        <v>354.0290909090909</v>
+      </c>
+      <c r="I638" t="n">
+        <v>359.5166666666667</v>
+      </c>
+      <c r="J638" t="n">
+        <v>369.7233333333333</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>330.3971428571429</v>
+      </c>
+      <c r="C639" t="n">
+        <v>351.41</v>
+      </c>
+      <c r="D639" t="n">
+        <v>355.0915384615384</v>
+      </c>
+      <c r="E639" t="n">
+        <v>350.6866666666667</v>
+      </c>
+      <c r="F639" t="n">
+        <v>346.3615384615384</v>
+      </c>
+      <c r="G639" t="n">
+        <v>358.3566666666667</v>
+      </c>
+      <c r="H639" t="n">
+        <v>372.65</v>
+      </c>
+      <c r="I639" t="n">
+        <v>373.9033333333333</v>
+      </c>
+      <c r="J639" t="n">
+        <v>378.0166666666667</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="n">
+        <v>344.1</v>
+      </c>
+      <c r="D640" t="n">
+        <v>350.09</v>
+      </c>
+      <c r="E640" t="n">
+        <v>346.2733333333333</v>
+      </c>
+      <c r="F640" t="n">
+        <v>351.14</v>
+      </c>
+      <c r="G640" t="n">
+        <v>366.3033333333333</v>
+      </c>
+      <c r="H640" t="n">
+        <v>373.9781818181818</v>
+      </c>
+      <c r="I640" t="n">
+        <v>372.0066666666667</v>
+      </c>
+      <c r="J640" t="n">
+        <v>388.0833333333333</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>332.0214285714285</v>
+      </c>
+      <c r="C641" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="D641" t="n">
+        <v>342.4261538461539</v>
+      </c>
+      <c r="E641" t="n">
+        <v>338.95</v>
+      </c>
+      <c r="F641" t="n">
+        <v>342.8461538461539</v>
+      </c>
+      <c r="G641" t="n">
+        <v>352.57</v>
+      </c>
+      <c r="H641" t="n">
+        <v>351.78</v>
+      </c>
+      <c r="I641" t="n">
+        <v>355.98</v>
+      </c>
+      <c r="J641" t="n">
+        <v>368.34</v>
+      </c>
+      <c r="K641" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23223,7 +23414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30151,6 +30342,56 @@
       </c>
       <c r="B692" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -30324,28 +30565,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06463060123865771</v>
+        <v>-0.07085351850477073</v>
       </c>
       <c r="J2" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K2" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006876758693411533</v>
+        <v>0.0008354514342859831</v>
       </c>
       <c r="M2" t="n">
-        <v>12.69239379738166</v>
+        <v>12.65061566794432</v>
       </c>
       <c r="N2" t="n">
-        <v>271.2257501131942</v>
+        <v>269.85458411078</v>
       </c>
       <c r="O2" t="n">
-        <v>16.46893287718406</v>
+        <v>16.42725126461454</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6030122722305</v>
+        <v>334.6749685515242</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30402,28 +30643,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1300281087726709</v>
+        <v>-0.133814135551461</v>
       </c>
       <c r="J3" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01004013825839711</v>
+        <v>0.0107545801004949</v>
       </c>
       <c r="M3" t="n">
-        <v>6.664302945426031</v>
+        <v>6.664877527725167</v>
       </c>
       <c r="N3" t="n">
-        <v>73.14934770038727</v>
+        <v>72.97879574421867</v>
       </c>
       <c r="O3" t="n">
-        <v>8.552739192819296</v>
+        <v>8.542762769983646</v>
       </c>
       <c r="P3" t="n">
-        <v>349.253715003941</v>
+        <v>349.2976706694927</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30480,28 +30721,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04144761176381823</v>
+        <v>-0.04431830537044014</v>
       </c>
       <c r="J4" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K4" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001249849533952463</v>
+        <v>0.001450078163132806</v>
       </c>
       <c r="M4" t="n">
-        <v>6.060192507178948</v>
+        <v>6.042840802543066</v>
       </c>
       <c r="N4" t="n">
-        <v>61.48368917963084</v>
+        <v>61.13534012958622</v>
       </c>
       <c r="O4" t="n">
-        <v>7.841153561793752</v>
+        <v>7.818909139361208</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5409202593283</v>
+        <v>352.5740386525318</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30558,28 +30799,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1213440046635781</v>
+        <v>-0.1196048744506644</v>
       </c>
       <c r="J5" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K5" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0100515261582208</v>
+        <v>0.009913809461279954</v>
       </c>
       <c r="M5" t="n">
-        <v>6.166281504320919</v>
+        <v>6.148592475728022</v>
       </c>
       <c r="N5" t="n">
-        <v>65.66674412870275</v>
+        <v>65.26032396323394</v>
       </c>
       <c r="O5" t="n">
-        <v>8.103501966970992</v>
+        <v>8.078386222707723</v>
       </c>
       <c r="P5" t="n">
-        <v>348.0355948506459</v>
+        <v>348.0156463010959</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30636,28 +30877,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1910771561323033</v>
+        <v>-0.1877690060540887</v>
       </c>
       <c r="J6" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K6" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02353589611238704</v>
+        <v>0.02309638738200626</v>
       </c>
       <c r="M6" t="n">
-        <v>6.248701192804928</v>
+        <v>6.222266633618812</v>
       </c>
       <c r="N6" t="n">
-        <v>67.93455386405664</v>
+        <v>67.47887993255905</v>
       </c>
       <c r="O6" t="n">
-        <v>8.242242041098807</v>
+        <v>8.214552935647749</v>
       </c>
       <c r="P6" t="n">
-        <v>350.9124236116588</v>
+        <v>350.8742671615402</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30714,28 +30955,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2160465739815664</v>
+        <v>-0.2010721336817774</v>
       </c>
       <c r="J7" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K7" t="n">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03000193368924797</v>
+        <v>0.02617673742590154</v>
       </c>
       <c r="M7" t="n">
-        <v>6.333835100506202</v>
+        <v>6.348955162628945</v>
       </c>
       <c r="N7" t="n">
-        <v>67.71135457755778</v>
+        <v>68.09794986015298</v>
       </c>
       <c r="O7" t="n">
-        <v>8.228690939484711</v>
+        <v>8.252148196691149</v>
       </c>
       <c r="P7" t="n">
-        <v>359.7464755713447</v>
+        <v>359.5735098870031</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30792,28 +31033,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2326588907947534</v>
+        <v>-0.2160444847442939</v>
       </c>
       <c r="J8" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K8" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03110212990875083</v>
+        <v>0.02682690206119942</v>
       </c>
       <c r="M8" t="n">
-        <v>6.72593879165974</v>
+        <v>6.774726272595786</v>
       </c>
       <c r="N8" t="n">
-        <v>76.06584171747127</v>
+        <v>77.0670113704533</v>
       </c>
       <c r="O8" t="n">
-        <v>8.721573351034277</v>
+        <v>8.778781884205422</v>
       </c>
       <c r="P8" t="n">
-        <v>363.2867435000322</v>
+        <v>363.09508486638</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30870,28 +31111,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1148881702633237</v>
+        <v>-0.1036871955339662</v>
       </c>
       <c r="J9" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K9" t="n">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008470388168276499</v>
+        <v>0.006952992709990169</v>
       </c>
       <c r="M9" t="n">
-        <v>6.399020637644768</v>
+        <v>6.417844325887885</v>
       </c>
       <c r="N9" t="n">
-        <v>69.79394086619041</v>
+        <v>69.98618257849218</v>
       </c>
       <c r="O9" t="n">
-        <v>8.354276800908048</v>
+        <v>8.365774475713064</v>
       </c>
       <c r="P9" t="n">
-        <v>364.148115625874</v>
+        <v>364.0192503762395</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30948,28 +31189,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1048295518615676</v>
+        <v>-0.0918146937891046</v>
       </c>
       <c r="J10" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K10" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005963500628644036</v>
+        <v>0.004609381542531654</v>
       </c>
       <c r="M10" t="n">
-        <v>6.714667558563736</v>
+        <v>6.730880936691114</v>
       </c>
       <c r="N10" t="n">
-        <v>83.48430514616322</v>
+        <v>83.68939614889894</v>
       </c>
       <c r="O10" t="n">
-        <v>9.136974616696888</v>
+        <v>9.148190867537632</v>
       </c>
       <c r="P10" t="n">
-        <v>373.4689943854102</v>
+        <v>373.3197950141401</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31007,7 +31248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K636"/>
+  <dimension ref="A1:K641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63175,6 +63416,283 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr"/>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-45.26093253367764,170.86079901913777</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-45.26132083600827,170.86010492000688</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-45.26178606463265,170.8595644625613</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-45.26234743106439,170.85920367582168</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-45.26299333491765,170.85917345737704</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-45.26357578668715,170.85897094872828</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-45.26414376126255,170.85886238079195</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-45.264736478522764,170.85907834536752</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-45.2602671006175,170.86111703587068</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-45.260840951523015,170.86068427221204</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-45.26127706252664,170.86004485776874</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-45.26174562909683,170.8594746895042</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-45.262315284286764,170.85909795169974</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-45.262952582415885,170.85899544072268</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>-45.26353526334206,170.85869676096402</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>-45.264141181166764,170.85868717154065</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>-45.264745616408874,170.85889727173154</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-45.26032069516572,170.86119977328116</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-45.26092741208837,170.86079260208143</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-45.26132421122778,170.86010955120076</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-45.26178551624531,170.85956324505588</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-45.262321533535875,170.85911850415698</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-45.262952064452236,170.85899317814318</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>-45.2635695866559,170.85892899796224</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-45.264143880068055,170.8588704490809</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-45.26474029705681,170.85900267913235</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-45.260878150468834,170.86073088019046</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-45.26129189063538,170.8600652036199</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-45.26176416138721,170.85951583398065</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-45.262338537606645,170.85917442702944</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-45.26297411486575,170.85908949942134</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-45.26357203483222,170.85894556284467</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-45.26414352427514,170.85884628667884</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-45.26473384015571,170.85913062539302</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-45.260330574699196,170.86121502499012</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-45.260808402430555,170.86064349028072</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-45.26124236583225,170.85999725001895</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-45.26172872582899,170.8594371617547</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-45.26230902408483,170.8590773632376</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-45.26293600755716,170.8589230382007</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-45.26353111763456,170.8586687106822</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-45.26414051765227,170.8586421165241</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-45.2647465036707,170.85887968970772</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37996,7 +37996,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-45.26233840621663,170.85917399491439</t>
+          <t>-45.26233840621662,170.85917399491439</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -63440,7 +63440,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>-45.26234743106439,170.85920367582168</t>
+          <t>-45.262347431064384,170.85920367582168</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K641"/>
+  <dimension ref="A1:K643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23400,6 +23400,84 @@
       <c r="K641" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>296.02</v>
+      </c>
+      <c r="C642" t="n">
+        <v>332.12</v>
+      </c>
+      <c r="D642" t="n">
+        <v>336.6107692307692</v>
+      </c>
+      <c r="E642" t="n">
+        <v>339.67</v>
+      </c>
+      <c r="F642" t="n">
+        <v>344.5207692307692</v>
+      </c>
+      <c r="G642" t="n">
+        <v>356.32</v>
+      </c>
+      <c r="H642" t="n">
+        <v>353.8981818181818</v>
+      </c>
+      <c r="I642" t="n">
+        <v>350.74</v>
+      </c>
+      <c r="J642" t="n">
+        <v>360.27</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>313.2942857142857</v>
+      </c>
+      <c r="C643" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="D643" t="n">
+        <v>343.1069230769231</v>
+      </c>
+      <c r="E643" t="n">
+        <v>342.5033333333333</v>
+      </c>
+      <c r="F643" t="n">
+        <v>344.9169230769231</v>
+      </c>
+      <c r="G643" t="n">
+        <v>363.4733333333333</v>
+      </c>
+      <c r="H643" t="n">
+        <v>354.9245454545455</v>
+      </c>
+      <c r="I643" t="n">
+        <v>360.1166666666667</v>
+      </c>
+      <c r="J643" t="n">
+        <v>363.0033333333333</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23414,7 +23492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30392,6 +30470,26 @@
       </c>
       <c r="B697" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -30565,28 +30663,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07085351850477073</v>
+        <v>-0.09442601918268895</v>
       </c>
       <c r="J2" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K2" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008354514342859831</v>
+        <v>0.001475644853712321</v>
       </c>
       <c r="M2" t="n">
-        <v>12.65061566794432</v>
+        <v>12.73140948257703</v>
       </c>
       <c r="N2" t="n">
-        <v>269.85458411078</v>
+        <v>272.2289797674469</v>
       </c>
       <c r="O2" t="n">
-        <v>16.42725126461454</v>
+        <v>16.49936301096036</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6749685515242</v>
+        <v>334.9483639811031</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30643,28 +30741,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.133814135551461</v>
+        <v>-0.1433320497981914</v>
       </c>
       <c r="J3" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K3" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0107545801004949</v>
+        <v>0.01232007453556783</v>
       </c>
       <c r="M3" t="n">
-        <v>6.664877527725167</v>
+        <v>6.68758802180734</v>
       </c>
       <c r="N3" t="n">
-        <v>72.97879574421867</v>
+        <v>73.2536485951464</v>
       </c>
       <c r="O3" t="n">
-        <v>8.542762769983646</v>
+        <v>8.558834534861999</v>
       </c>
       <c r="P3" t="n">
-        <v>349.2976706694927</v>
+        <v>349.4082329810471</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30721,28 +30819,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04431830537044014</v>
+        <v>-0.05321291857276168</v>
       </c>
       <c r="J4" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K4" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001450078163132806</v>
+        <v>0.002086424186102276</v>
       </c>
       <c r="M4" t="n">
-        <v>6.042840802543066</v>
+        <v>6.064296065256422</v>
       </c>
       <c r="N4" t="n">
-        <v>61.13534012958622</v>
+        <v>61.43799717320408</v>
       </c>
       <c r="O4" t="n">
-        <v>7.818909139361208</v>
+        <v>7.83823941795631</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5740386525318</v>
+        <v>352.6767274756935</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30799,28 +30897,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1196048744506644</v>
+        <v>-0.1225293558192326</v>
       </c>
       <c r="J5" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K5" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009913809461279954</v>
+        <v>0.0104635666949825</v>
       </c>
       <c r="M5" t="n">
-        <v>6.148592475728022</v>
+        <v>6.140031929179017</v>
       </c>
       <c r="N5" t="n">
-        <v>65.26032396323394</v>
+        <v>65.07886720426036</v>
       </c>
       <c r="O5" t="n">
-        <v>8.078386222707723</v>
+        <v>8.067147401917257</v>
       </c>
       <c r="P5" t="n">
-        <v>348.0156463010959</v>
+        <v>348.0493831747862</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30877,28 +30975,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1877690060540887</v>
+        <v>-0.1887773613557935</v>
       </c>
       <c r="J6" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K6" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02309638738200626</v>
+        <v>0.0235025190438084</v>
       </c>
       <c r="M6" t="n">
-        <v>6.222266633618812</v>
+        <v>6.204196891290491</v>
       </c>
       <c r="N6" t="n">
-        <v>67.47887993255905</v>
+        <v>67.2336047940677</v>
       </c>
       <c r="O6" t="n">
-        <v>8.214552935647749</v>
+        <v>8.199610039146235</v>
       </c>
       <c r="P6" t="n">
-        <v>350.8742671615402</v>
+        <v>350.8859473151369</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30955,28 +31053,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2010721336817774</v>
+        <v>-0.1967463317584902</v>
       </c>
       <c r="J7" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K7" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02617673742590154</v>
+        <v>0.02521214937591387</v>
       </c>
       <c r="M7" t="n">
-        <v>6.348955162628945</v>
+        <v>6.3449478010969</v>
       </c>
       <c r="N7" t="n">
-        <v>68.09794986015298</v>
+        <v>68.00125829057907</v>
       </c>
       <c r="O7" t="n">
-        <v>8.252148196691149</v>
+        <v>8.246287545955397</v>
       </c>
       <c r="P7" t="n">
-        <v>359.5735098870031</v>
+        <v>359.5233507757395</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31033,28 +31131,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2160444847442939</v>
+        <v>-0.2185015594941309</v>
       </c>
       <c r="J8" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K8" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02682690206119942</v>
+        <v>0.02760858338570615</v>
       </c>
       <c r="M8" t="n">
-        <v>6.774726272595786</v>
+        <v>6.760515054384362</v>
       </c>
       <c r="N8" t="n">
-        <v>77.0670113704533</v>
+        <v>76.80644941828483</v>
       </c>
       <c r="O8" t="n">
-        <v>8.778781884205422</v>
+        <v>8.763928880261684</v>
       </c>
       <c r="P8" t="n">
-        <v>363.09508486638</v>
+        <v>363.1235235934303</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31111,28 +31209,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1036871955339662</v>
+        <v>-0.1082855410439278</v>
       </c>
       <c r="J9" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K9" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006952992709990169</v>
+        <v>0.00761062218546571</v>
       </c>
       <c r="M9" t="n">
-        <v>6.417844325887885</v>
+        <v>6.416139622472139</v>
       </c>
       <c r="N9" t="n">
-        <v>69.98618257849218</v>
+        <v>69.93533061560679</v>
       </c>
       <c r="O9" t="n">
-        <v>8.365774475713064</v>
+        <v>8.362734637402216</v>
       </c>
       <c r="P9" t="n">
-        <v>364.0192503762395</v>
+        <v>364.0723162402954</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31189,28 +31287,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0918146937891046</v>
+        <v>-0.09886577224754498</v>
       </c>
       <c r="J10" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K10" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004609381542531654</v>
+        <v>0.005357743191985453</v>
       </c>
       <c r="M10" t="n">
-        <v>6.730880936691114</v>
+        <v>6.738947228819141</v>
       </c>
       <c r="N10" t="n">
-        <v>83.68939614889894</v>
+        <v>83.70438577691294</v>
       </c>
       <c r="O10" t="n">
-        <v>9.148190867537632</v>
+        <v>9.149010098197124</v>
       </c>
       <c r="P10" t="n">
-        <v>373.3197950141401</v>
+        <v>373.4008868740345</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31248,7 +31346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K641"/>
+  <dimension ref="A1:K643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63693,6 +63791,120 @@
         </is>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-45.260111599637476,170.86087698022104</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-45.26079741795108,170.8606297274448</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-45.26120478601001,170.85994568638972</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-45.2617322097096,170.85944489647986</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-45.26231498318399,170.85909696143693</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-45.26294641309596,170.8589684917878</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-45.26353502203996,170.85869512828782</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-45.26413953454253,170.85857536206345</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-45.264751679666894,170.85877712083217</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-45.260216668859684,170.86103918129047</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-45.260819319519015,170.86065716868728</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-45.26124676505601,170.8600032862419</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-45.26174591942004,170.85947533406497</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-45.262316392892316,170.85910159766752</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-45.26296626218991,170.85905519707813</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-45.26353691391489,170.858707928923</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-45.264141293731086,170.8586948151817</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-45.26474992655174,170.85881186122128</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K643"/>
+  <dimension ref="A1:K649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23478,6 +23478,240 @@
       <c r="K643" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>317.9471428571428</v>
+      </c>
+      <c r="C644" t="n">
+        <v>326.1</v>
+      </c>
+      <c r="D644" t="n">
+        <v>334.65</v>
+      </c>
+      <c r="E644" t="n">
+        <v>337.2666666666667</v>
+      </c>
+      <c r="F644" t="n">
+        <v>341.41</v>
+      </c>
+      <c r="G644" t="n">
+        <v>352.5766666666667</v>
+      </c>
+      <c r="H644" t="n">
+        <v>356.2636363636364</v>
+      </c>
+      <c r="I644" t="n">
+        <v>354.7933333333333</v>
+      </c>
+      <c r="J644" t="n">
+        <v>364.3566666666667</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>308.2142857142857</v>
+      </c>
+      <c r="C645" t="n">
+        <v>344.07</v>
+      </c>
+      <c r="D645" t="n">
+        <v>350.7084615384616</v>
+      </c>
+      <c r="E645" t="n">
+        <v>350.1133333333333</v>
+      </c>
+      <c r="F645" t="n">
+        <v>350.0984615384615</v>
+      </c>
+      <c r="G645" t="n">
+        <v>359.7233333333333</v>
+      </c>
+      <c r="H645" t="n">
+        <v>361.210909090909</v>
+      </c>
+      <c r="I645" t="n">
+        <v>366.7266666666667</v>
+      </c>
+      <c r="J645" t="n">
+        <v>368.6933333333333</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>334.58</v>
+      </c>
+      <c r="C646" t="n">
+        <v>342.36</v>
+      </c>
+      <c r="D646" t="n">
+        <v>352.5507692307692</v>
+      </c>
+      <c r="E646" t="n">
+        <v>348.59</v>
+      </c>
+      <c r="F646" t="n">
+        <v>356.7507692307692</v>
+      </c>
+      <c r="G646" t="n">
+        <v>360.06</v>
+      </c>
+      <c r="H646" t="n">
+        <v>369.0381818181818</v>
+      </c>
+      <c r="I646" t="n">
+        <v>369.35</v>
+      </c>
+      <c r="J646" t="n">
+        <v>378.56</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>330.1714285714286</v>
+      </c>
+      <c r="C647" t="n">
+        <v>330.85</v>
+      </c>
+      <c r="D647" t="n">
+        <v>340.9315384615385</v>
+      </c>
+      <c r="E647" t="n">
+        <v>337.4933333333333</v>
+      </c>
+      <c r="F647" t="n">
+        <v>340.5515384615384</v>
+      </c>
+      <c r="G647" t="n">
+        <v>345.8733333333333</v>
+      </c>
+      <c r="H647" t="n">
+        <v>359.5718181818182</v>
+      </c>
+      <c r="I647" t="n">
+        <v>354.8166666666667</v>
+      </c>
+      <c r="J647" t="n">
+        <v>363.6133333333333</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>306.1857142857143</v>
+      </c>
+      <c r="C648" t="n">
+        <v>325.88</v>
+      </c>
+      <c r="D648" t="n">
+        <v>331.7353846153846</v>
+      </c>
+      <c r="E648" t="n">
+        <v>334.47</v>
+      </c>
+      <c r="F648" t="n">
+        <v>342.6753846153846</v>
+      </c>
+      <c r="G648" t="n">
+        <v>349.49</v>
+      </c>
+      <c r="H648" t="n">
+        <v>356.7545454545455</v>
+      </c>
+      <c r="I648" t="n">
+        <v>348.45</v>
+      </c>
+      <c r="J648" t="n">
+        <v>361.97</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>329.12</v>
+      </c>
+      <c r="C649" t="n">
+        <v>336.35</v>
+      </c>
+      <c r="D649" t="n">
+        <v>347.1715384615384</v>
+      </c>
+      <c r="E649" t="n">
+        <v>347.1533333333333</v>
+      </c>
+      <c r="F649" t="n">
+        <v>358.0515384615384</v>
+      </c>
+      <c r="G649" t="n">
+        <v>361.7933333333333</v>
+      </c>
+      <c r="H649" t="n">
+        <v>368.3409090909091</v>
+      </c>
+      <c r="I649" t="n">
+        <v>363.6966666666667</v>
+      </c>
+      <c r="J649" t="n">
+        <v>377.8833333333333</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23492,7 +23726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B699"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30490,6 +30724,76 @@
       </c>
       <c r="B699" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -30663,28 +30967,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09442601918268895</v>
+        <v>-0.1224194069293786</v>
       </c>
       <c r="J2" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K2" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001475644853712321</v>
+        <v>0.002508663020296065</v>
       </c>
       <c r="M2" t="n">
-        <v>12.73140948257703</v>
+        <v>12.7440512369115</v>
       </c>
       <c r="N2" t="n">
-        <v>272.2289797674469</v>
+        <v>271.941309986071</v>
       </c>
       <c r="O2" t="n">
-        <v>16.49936301096036</v>
+        <v>16.49064310407787</v>
       </c>
       <c r="P2" t="n">
-        <v>334.9483639811031</v>
+        <v>335.2740955042374</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30741,28 +31045,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1433320497981914</v>
+        <v>-0.1696482917441069</v>
       </c>
       <c r="J3" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K3" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01232007453556783</v>
+        <v>0.01709993604508109</v>
       </c>
       <c r="M3" t="n">
-        <v>6.68758802180734</v>
+        <v>6.745142936696281</v>
       </c>
       <c r="N3" t="n">
-        <v>73.2536485951464</v>
+        <v>74.4098906334692</v>
       </c>
       <c r="O3" t="n">
-        <v>8.558834534861999</v>
+        <v>8.626116776016262</v>
       </c>
       <c r="P3" t="n">
-        <v>349.4082329810471</v>
+        <v>349.7149787114617</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30819,28 +31123,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05321291857276168</v>
+        <v>-0.07199348045780225</v>
       </c>
       <c r="J4" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K4" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002086424186102276</v>
+        <v>0.003807299039304324</v>
       </c>
       <c r="M4" t="n">
-        <v>6.064296065256422</v>
+        <v>6.096020878375924</v>
       </c>
       <c r="N4" t="n">
-        <v>61.43799717320408</v>
+        <v>62.17734567751494</v>
       </c>
       <c r="O4" t="n">
-        <v>7.83823941795631</v>
+        <v>7.885261294181376</v>
       </c>
       <c r="P4" t="n">
-        <v>352.6767274756935</v>
+        <v>352.8943325965535</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30897,28 +31201,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1225293558192326</v>
+        <v>-0.1278077200365294</v>
       </c>
       <c r="J5" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K5" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0104635666949825</v>
+        <v>0.01152826261381812</v>
       </c>
       <c r="M5" t="n">
-        <v>6.140031929179017</v>
+        <v>6.139753073358865</v>
       </c>
       <c r="N5" t="n">
-        <v>65.07886720426036</v>
+        <v>64.84940063152698</v>
       </c>
       <c r="O5" t="n">
-        <v>8.067147401917257</v>
+        <v>8.052912555810288</v>
       </c>
       <c r="P5" t="n">
-        <v>348.0493831747862</v>
+        <v>348.110528769956</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30975,28 +31279,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1887773613557935</v>
+        <v>-0.1837022743079387</v>
       </c>
       <c r="J6" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K6" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0235025190438084</v>
+        <v>0.02254814673473904</v>
       </c>
       <c r="M6" t="n">
-        <v>6.204196891290491</v>
+        <v>6.2087315019188</v>
       </c>
       <c r="N6" t="n">
-        <v>67.2336047940677</v>
+        <v>67.11374649713295</v>
       </c>
       <c r="O6" t="n">
-        <v>8.199610039146235</v>
+        <v>8.192297998555286</v>
       </c>
       <c r="P6" t="n">
-        <v>350.8859473151369</v>
+        <v>350.8269163326802</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31053,28 +31357,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1967463317584902</v>
+        <v>-0.1956381667093866</v>
       </c>
       <c r="J7" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K7" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02521214937591387</v>
+        <v>0.02532300452624903</v>
       </c>
       <c r="M7" t="n">
-        <v>6.3449478010969</v>
+        <v>6.336392320281604</v>
       </c>
       <c r="N7" t="n">
-        <v>68.00125829057907</v>
+        <v>67.63614856631791</v>
       </c>
       <c r="O7" t="n">
-        <v>8.246287545955397</v>
+        <v>8.2241199265525</v>
       </c>
       <c r="P7" t="n">
-        <v>359.5233507757395</v>
+        <v>359.5104887160711</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31131,28 +31435,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2185015594941309</v>
+        <v>-0.2083487782764216</v>
       </c>
       <c r="J8" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K8" t="n">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02760858338570615</v>
+        <v>0.02554008602901814</v>
       </c>
       <c r="M8" t="n">
-        <v>6.760515054384362</v>
+        <v>6.740721918628129</v>
       </c>
       <c r="N8" t="n">
-        <v>76.80644941828483</v>
+        <v>76.4381084243192</v>
       </c>
       <c r="O8" t="n">
-        <v>8.763928880261684</v>
+        <v>8.742889020473678</v>
       </c>
       <c r="P8" t="n">
-        <v>363.1235235934303</v>
+        <v>363.0055528511191</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31209,28 +31513,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1082855410439278</v>
+        <v>-0.1120152293635807</v>
       </c>
       <c r="J9" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K9" t="n">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00761062218546571</v>
+        <v>0.008239312534128351</v>
       </c>
       <c r="M9" t="n">
-        <v>6.416139622472139</v>
+        <v>6.422397218263649</v>
       </c>
       <c r="N9" t="n">
-        <v>69.93533061560679</v>
+        <v>69.80133443142847</v>
       </c>
       <c r="O9" t="n">
-        <v>8.362734637402216</v>
+        <v>8.354719291001253</v>
       </c>
       <c r="P9" t="n">
-        <v>364.0723162402954</v>
+        <v>364.1155901986135</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31287,28 +31591,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09886577224754498</v>
+        <v>-0.1025509435817619</v>
       </c>
       <c r="J10" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K10" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005357743191985453</v>
+        <v>0.005847553404141226</v>
       </c>
       <c r="M10" t="n">
-        <v>6.738947228819141</v>
+        <v>6.736378455449553</v>
       </c>
       <c r="N10" t="n">
-        <v>83.70438577691294</v>
+        <v>83.30603092559467</v>
       </c>
       <c r="O10" t="n">
-        <v>9.149010098197124</v>
+        <v>9.127213754788187</v>
       </c>
       <c r="P10" t="n">
-        <v>373.4008868740345</v>
+        <v>373.4433969828731</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31346,7 +31650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K643"/>
+  <dimension ref="A1:K649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63905,6 +64209,348 @@
         </is>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-45.260244969388914,170.8610828705167</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-45.260756849491706,170.86057889787594</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-45.261192115242196,170.85992830073167</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-45.261720580643164,170.85941907825756</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-45.26230391354562,170.85906055578195</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-45.26293602605592,170.85892311900707</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-45.263539382231436,170.85872462984162</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-45.264140295017604,170.85862699910138</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-45.264749058542016,170.8588290619499</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-45.260185770259255,170.86099148134372</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-45.260877948300696,170.86073062688607</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-45.26129588721521,170.86007068738448</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-45.26178274205033,170.85955708591115</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-45.26233483131274,170.85916223778483</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-45.26295585668508,170.8590097434582</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-45.26354850140845,170.85878633141587</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-45.264142533780785,170.8587790226306</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-45.26474627704505,170.85888418053796</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-45.26034613691553,170.86123904946064</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-45.260866424716134,170.86071618853853</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-45.26130779244842,170.86008702273253</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-45.26177537107719,170.85954072120975</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-45.26235850339533,170.85924009053608</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-45.262956790868905,170.85901382418248</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-45.263562929145905,170.85888395192066</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-45.26414302590636,170.85881244233087</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-45.26473994855886,170.85900958484171</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-45.26031932228404,170.86119765387082</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-45.26078885949051,170.86061900425733</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-45.2612327074224,170.8599839976141</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-45.26172167742084,170.8594215132628</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-45.2623008587176,170.8590505091201</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-45.262917425532905,170.85884186823776</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-45.26354548011918,170.8587658889405</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-45.264140299395265,170.85862729635406</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-45.2647495353063,170.85881961425912</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-45.26017343166769,170.86097243357295</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-45.26075536692301,170.8605770403183</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-45.261173280581055,170.85990245756886</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-45.26170704833821,170.85938903459757</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-45.262308416404345,170.8590753647076</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-45.26292746112797,170.85888570566738</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-45.26354028711267,170.85873075237836</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-45.26413910488881,170.8585461888366</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-45.26475058931604,170.85879872765975</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-45.26031292708787,170.861187781176</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-45.26082592368288,170.86066544328145</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-45.26127303114952,170.8600393262636</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-45.26176841945711,170.85952528754564</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-45.26236313214639,170.85925531360144</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-45.26296160052594,170.85903483385425</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-45.26356164389088,170.8588752556436</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-45.264141965354206,170.85874042224106</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-45.264740382577706,170.85900098447974</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K649"/>
+  <dimension ref="A1:K652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23712,6 +23712,123 @@
       <c r="K649" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>335.3914285714285</v>
+      </c>
+      <c r="C650" t="n">
+        <v>337.86</v>
+      </c>
+      <c r="D650" t="n">
+        <v>339.9038461538461</v>
+      </c>
+      <c r="E650" t="n">
+        <v>339.1333333333333</v>
+      </c>
+      <c r="F650" t="n">
+        <v>342.4038461538461</v>
+      </c>
+      <c r="G650" t="n">
+        <v>355.3733333333333</v>
+      </c>
+      <c r="H650" t="n">
+        <v>363.8263636363636</v>
+      </c>
+      <c r="I650" t="n">
+        <v>361.7866666666667</v>
+      </c>
+      <c r="J650" t="n">
+        <v>373.9533333333333</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>316.0657142857143</v>
+      </c>
+      <c r="C651" t="n">
+        <v>326.73</v>
+      </c>
+      <c r="D651" t="n">
+        <v>333.7223076923077</v>
+      </c>
+      <c r="E651" t="n">
+        <v>330.8</v>
+      </c>
+      <c r="F651" t="n">
+        <v>331.6123076923077</v>
+      </c>
+      <c r="G651" t="n">
+        <v>340.97</v>
+      </c>
+      <c r="H651" t="n">
+        <v>346.7618181818182</v>
+      </c>
+      <c r="I651" t="n">
+        <v>355.82</v>
+      </c>
+      <c r="J651" t="n">
+        <v>361.98</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>328.6342857142857</v>
+      </c>
+      <c r="C652" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="D652" t="n">
+        <v>333.5584615384616</v>
+      </c>
+      <c r="E652" t="n">
+        <v>335.74</v>
+      </c>
+      <c r="F652" t="n">
+        <v>330.3784615384615</v>
+      </c>
+      <c r="G652" t="n">
+        <v>335.76</v>
+      </c>
+      <c r="H652" t="n">
+        <v>336.8363636363636</v>
+      </c>
+      <c r="I652" t="n">
+        <v>342.75</v>
+      </c>
+      <c r="J652" t="n">
+        <v>358.27</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23726,7 +23843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30794,6 +30911,46 @@
       </c>
       <c r="B706" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -30967,28 +31124,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1224194069293786</v>
+        <v>-0.1289642946508931</v>
       </c>
       <c r="J2" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K2" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002508663020296065</v>
+        <v>0.002809669022191152</v>
       </c>
       <c r="M2" t="n">
-        <v>12.7440512369115</v>
+        <v>12.7183167295644</v>
       </c>
       <c r="N2" t="n">
-        <v>271.941309986071</v>
+        <v>270.8790103569089</v>
       </c>
       <c r="O2" t="n">
-        <v>16.49064310407787</v>
+        <v>16.45840242419989</v>
       </c>
       <c r="P2" t="n">
-        <v>335.2740955042374</v>
+        <v>335.3505903422584</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31045,28 +31202,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1696482917441069</v>
+        <v>-0.1839660525684792</v>
       </c>
       <c r="J3" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K3" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01709993604508109</v>
+        <v>0.020010896589988</v>
       </c>
       <c r="M3" t="n">
-        <v>6.745142936696281</v>
+        <v>6.78071052448784</v>
       </c>
       <c r="N3" t="n">
-        <v>74.4098906334692</v>
+        <v>74.96085380527313</v>
       </c>
       <c r="O3" t="n">
-        <v>8.626116776016262</v>
+        <v>8.657993636245822</v>
       </c>
       <c r="P3" t="n">
-        <v>349.7149787114617</v>
+        <v>349.8824818703144</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31123,28 +31280,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07199348045780225</v>
+        <v>-0.08909373821311299</v>
       </c>
       <c r="J4" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K4" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003807299039304324</v>
+        <v>0.005760299663440271</v>
       </c>
       <c r="M4" t="n">
-        <v>6.096020878375924</v>
+        <v>6.149161187382451</v>
       </c>
       <c r="N4" t="n">
-        <v>62.17734567751494</v>
+        <v>63.14176847153532</v>
       </c>
       <c r="O4" t="n">
-        <v>7.885261294181376</v>
+        <v>7.946179489008244</v>
       </c>
       <c r="P4" t="n">
-        <v>352.8943325965535</v>
+        <v>353.0932319076453</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31201,28 +31358,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1278077200365294</v>
+        <v>-0.1384011145180749</v>
       </c>
       <c r="J5" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K5" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01152826261381812</v>
+        <v>0.01351582326714384</v>
       </c>
       <c r="M5" t="n">
-        <v>6.139753073358865</v>
+        <v>6.158709494748637</v>
       </c>
       <c r="N5" t="n">
-        <v>64.84940063152698</v>
+        <v>65.05288872459458</v>
       </c>
       <c r="O5" t="n">
-        <v>8.052912555810288</v>
+        <v>8.065537100813224</v>
       </c>
       <c r="P5" t="n">
-        <v>348.110528769956</v>
+        <v>348.2336765017332</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31279,28 +31436,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1837022743079387</v>
+        <v>-0.1962882418642253</v>
       </c>
       <c r="J6" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K6" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02254814673473904</v>
+        <v>0.02561034015924257</v>
       </c>
       <c r="M6" t="n">
-        <v>6.2087315019188</v>
+        <v>6.238565692897856</v>
       </c>
       <c r="N6" t="n">
-        <v>67.11374649713295</v>
+        <v>67.59165636057563</v>
       </c>
       <c r="O6" t="n">
-        <v>8.192297998555286</v>
+        <v>8.221414498769395</v>
       </c>
       <c r="P6" t="n">
-        <v>350.8269163326802</v>
+        <v>350.973832765872</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31357,28 +31514,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1956381667093866</v>
+        <v>-0.207508088570368</v>
       </c>
       <c r="J7" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K7" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02532300452624903</v>
+        <v>0.02829378397766524</v>
       </c>
       <c r="M7" t="n">
-        <v>6.336392320281604</v>
+        <v>6.364747224072272</v>
       </c>
       <c r="N7" t="n">
-        <v>67.63614856631791</v>
+        <v>68.24229630976191</v>
       </c>
       <c r="O7" t="n">
-        <v>8.2241199265525</v>
+        <v>8.260889559227984</v>
       </c>
       <c r="P7" t="n">
-        <v>359.5104887160711</v>
+        <v>359.6491825000473</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31435,28 +31592,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2083487782764216</v>
+        <v>-0.2180685766646655</v>
       </c>
       <c r="J8" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K8" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02554008602901814</v>
+        <v>0.02780967884381391</v>
       </c>
       <c r="M8" t="n">
-        <v>6.740721918628129</v>
+        <v>6.773902974278934</v>
       </c>
       <c r="N8" t="n">
-        <v>76.4381084243192</v>
+        <v>77.11278343905632</v>
       </c>
       <c r="O8" t="n">
-        <v>8.742889020473678</v>
+        <v>8.781388468747771</v>
       </c>
       <c r="P8" t="n">
-        <v>363.0055528511191</v>
+        <v>363.1190128804685</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31513,28 +31670,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1120152293635807</v>
+        <v>-0.1207959730036917</v>
       </c>
       <c r="J9" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K9" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008239312534128351</v>
+        <v>0.009576978649854073</v>
       </c>
       <c r="M9" t="n">
-        <v>6.422397218263649</v>
+        <v>6.432447484628276</v>
       </c>
       <c r="N9" t="n">
-        <v>69.80133443142847</v>
+        <v>70.09603373637746</v>
       </c>
       <c r="O9" t="n">
-        <v>8.354719291001253</v>
+        <v>8.372337411761274</v>
       </c>
       <c r="P9" t="n">
-        <v>364.1155901986135</v>
+        <v>364.2177870224143</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31591,28 +31748,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1025509435817619</v>
+        <v>-0.1092226833792544</v>
       </c>
       <c r="J10" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K10" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005847553404141226</v>
+        <v>0.006661445548807987</v>
       </c>
       <c r="M10" t="n">
-        <v>6.736378455449553</v>
+        <v>6.742699341636767</v>
       </c>
       <c r="N10" t="n">
-        <v>83.30603092559467</v>
+        <v>83.29200458198814</v>
       </c>
       <c r="O10" t="n">
-        <v>9.127213754788187</v>
+        <v>9.126445342080789</v>
       </c>
       <c r="P10" t="n">
-        <v>373.4433969828731</v>
+        <v>373.5207689093567</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31650,7 +31807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K649"/>
+  <dimension ref="A1:K652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64551,6 +64708,177 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-45.26035107233544,170.86124666861426</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-45.26083609948527,170.86067819291497</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-45.26122606633273,170.85997488530953</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-45.26172961292827,170.85943913124484</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-45.262307450137556,170.859072186865</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-45.26294378627718,170.85895701728063</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-45.26355332239333,170.85881895094457</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-45.26414160703241,170.85871608998292</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-45.26474290329496,170.8589510345919</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-45.26023352579337,170.8610652043429</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-45.26076109502916,170.86058421724604</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-45.26118612036253,170.85992007511504</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-45.2616892902005,170.85934960902998</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-45.26226904849013,170.8589458924675</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-45.262903819644364,170.85878243521364</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-45.26352186768864,170.85860612478206</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-45.264140487634236,170.85864007821988</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-45.26475058290219,170.85879885475873</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-45.260309972785016,170.861183220421</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-45.260808402430555,170.86064349028072</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-45.26118506156533,170.8599186223322</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-45.26171319352175,170.85940267778344</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-45.262264657844696,170.8589314526601</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-45.26288936277634,170.85871928513257</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-45.26350357213399,170.8584823362844</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-45.264138035412714,170.85847357425763</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-45.26475296242736,170.85875170103412</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K652"/>
+  <dimension ref="A1:K659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23829,6 +23829,277 @@
       <c r="K652" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>333.9685714285715</v>
+      </c>
+      <c r="C653" t="n">
+        <v>343.35</v>
+      </c>
+      <c r="D653" t="n">
+        <v>360.1123076923077</v>
+      </c>
+      <c r="E653" t="n">
+        <v>351.6433333333333</v>
+      </c>
+      <c r="F653" t="n">
+        <v>346.2923076923077</v>
+      </c>
+      <c r="G653" t="n">
+        <v>363.9833333333333</v>
+      </c>
+      <c r="H653" t="n">
+        <v>368.7981818181818</v>
+      </c>
+      <c r="I653" t="n">
+        <v>360.8466666666666</v>
+      </c>
+      <c r="J653" t="n">
+        <v>376.5033333333333</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>315.0842857142857</v>
+      </c>
+      <c r="C654" t="n">
+        <v>339.85</v>
+      </c>
+      <c r="D654" t="n">
+        <v>341.1076923076923</v>
+      </c>
+      <c r="E654" t="n">
+        <v>333.33</v>
+      </c>
+      <c r="F654" t="n">
+        <v>327.0776923076923</v>
+      </c>
+      <c r="G654" t="n">
+        <v>335.46</v>
+      </c>
+      <c r="H654" t="n">
+        <v>338.6681818181818</v>
+      </c>
+      <c r="I654" t="n">
+        <v>343.34</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>332.7814285714285</v>
+      </c>
+      <c r="C655" t="n">
+        <v>340.26</v>
+      </c>
+      <c r="D655" t="n">
+        <v>346.5169230769231</v>
+      </c>
+      <c r="E655" t="n">
+        <v>335.2966666666667</v>
+      </c>
+      <c r="F655" t="n">
+        <v>341.0469230769231</v>
+      </c>
+      <c r="G655" t="n">
+        <v>350.5566666666667</v>
+      </c>
+      <c r="H655" t="n">
+        <v>358.6836363636364</v>
+      </c>
+      <c r="I655" t="n">
+        <v>367.9133333333333</v>
+      </c>
+      <c r="J655" t="n">
+        <v>370.3366666666667</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:36+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>328.7071428571429</v>
+      </c>
+      <c r="C656" t="n">
+        <v>329.34</v>
+      </c>
+      <c r="D656" t="n">
+        <v>344.9461538461539</v>
+      </c>
+      <c r="E656" t="n">
+        <v>333.8366666666667</v>
+      </c>
+      <c r="F656" t="n">
+        <v>334.6461538461539</v>
+      </c>
+      <c r="G656" t="n">
+        <v>347.4666666666667</v>
+      </c>
+      <c r="H656" t="n">
+        <v>343.5827272727273</v>
+      </c>
+      <c r="I656" t="n">
+        <v>348.2733333333334</v>
+      </c>
+      <c r="J656" t="n">
+        <v>361.3566666666667</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>331.2514285714286</v>
+      </c>
+      <c r="C657" t="n">
+        <v>349.09</v>
+      </c>
+      <c r="D657" t="n">
+        <v>356.9961538461538</v>
+      </c>
+      <c r="E657" t="n">
+        <v>351.58</v>
+      </c>
+      <c r="F657" t="n">
+        <v>347.4061538461539</v>
+      </c>
+      <c r="G657" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="H657" t="n">
+        <v>355.36</v>
+      </c>
+      <c r="I657" t="n">
+        <v>362.94</v>
+      </c>
+      <c r="J657" t="n">
+        <v>376.13</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>335.8342857142857</v>
+      </c>
+      <c r="C658" t="n">
+        <v>344.11</v>
+      </c>
+      <c r="D658" t="n">
+        <v>352.3892307692308</v>
+      </c>
+      <c r="E658" t="n">
+        <v>341.0133333333333</v>
+      </c>
+      <c r="F658" t="n">
+        <v>342.3792307692308</v>
+      </c>
+      <c r="G658" t="n">
+        <v>348.1933333333333</v>
+      </c>
+      <c r="H658" t="n">
+        <v>357.0790909090909</v>
+      </c>
+      <c r="I658" t="n">
+        <v>364.5066666666667</v>
+      </c>
+      <c r="J658" t="n">
+        <v>369.2333333333333</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:40+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>336.9157142857143</v>
+      </c>
+      <c r="C659" t="n">
+        <v>343.87</v>
+      </c>
+      <c r="D659" t="n">
+        <v>352.6630769230769</v>
+      </c>
+      <c r="E659" t="n">
+        <v>344.48</v>
+      </c>
+      <c r="F659" t="n">
+        <v>342.8530769230769</v>
+      </c>
+      <c r="G659" t="n">
+        <v>350.78</v>
+      </c>
+      <c r="H659" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="I659" t="n">
+        <v>358.84</v>
+      </c>
+      <c r="J659" t="n">
+        <v>364.38</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23843,7 +24114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30951,6 +31222,76 @@
       </c>
       <c r="B710" t="n">
         <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -31124,28 +31465,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1289642946508931</v>
+        <v>-0.1326215739320906</v>
       </c>
       <c r="J2" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K2" t="n">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002809669022191152</v>
+        <v>0.003042068869171244</v>
       </c>
       <c r="M2" t="n">
-        <v>12.7183167295644</v>
+        <v>12.61097565380713</v>
       </c>
       <c r="N2" t="n">
-        <v>270.8790103569089</v>
+        <v>267.8463770734013</v>
       </c>
       <c r="O2" t="n">
-        <v>16.45840242419989</v>
+        <v>16.36601286426848</v>
       </c>
       <c r="P2" t="n">
-        <v>335.3505903422584</v>
+        <v>335.3933633972072</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31202,28 +31543,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1839660525684792</v>
+        <v>-0.1934950381476517</v>
       </c>
       <c r="J3" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K3" t="n">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L3" t="n">
-        <v>0.020010896589988</v>
+        <v>0.02247095017469192</v>
       </c>
       <c r="M3" t="n">
-        <v>6.78071052448784</v>
+        <v>6.758111765499454</v>
       </c>
       <c r="N3" t="n">
-        <v>74.96085380527313</v>
+        <v>74.58858287422781</v>
       </c>
       <c r="O3" t="n">
-        <v>8.657993636245822</v>
+        <v>8.636468194477869</v>
       </c>
       <c r="P3" t="n">
-        <v>349.8824818703144</v>
+        <v>349.9943227345314</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31280,28 +31621,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08909373821311299</v>
+        <v>-0.08933894989224807</v>
       </c>
       <c r="J4" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K4" t="n">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005760299663440271</v>
+        <v>0.005887585933961104</v>
       </c>
       <c r="M4" t="n">
-        <v>6.149161187382451</v>
+        <v>6.141642868488952</v>
       </c>
       <c r="N4" t="n">
-        <v>63.14176847153532</v>
+        <v>62.84667658252395</v>
       </c>
       <c r="O4" t="n">
-        <v>7.946179489008244</v>
+        <v>7.927589582119142</v>
       </c>
       <c r="P4" t="n">
-        <v>353.0932319076453</v>
+        <v>353.0960850900784</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31358,28 +31699,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1384011145180749</v>
+        <v>-0.1460182259988105</v>
       </c>
       <c r="J5" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K5" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01351582326714384</v>
+        <v>0.01519530142678027</v>
       </c>
       <c r="M5" t="n">
-        <v>6.158709494748637</v>
+        <v>6.16909560806288</v>
       </c>
       <c r="N5" t="n">
-        <v>65.05288872459458</v>
+        <v>65.02426945492068</v>
       </c>
       <c r="O5" t="n">
-        <v>8.065537100813224</v>
+        <v>8.063762735529902</v>
       </c>
       <c r="P5" t="n">
-        <v>348.2336765017332</v>
+        <v>348.3225520653796</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31436,28 +31777,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1962882418642253</v>
+        <v>-0.2105211671805879</v>
       </c>
       <c r="J6" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K6" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02561034015924257</v>
+        <v>0.02963965455922091</v>
       </c>
       <c r="M6" t="n">
-        <v>6.238565692897856</v>
+        <v>6.239761783377106</v>
       </c>
       <c r="N6" t="n">
-        <v>67.59165636057563</v>
+        <v>67.67240453248873</v>
       </c>
       <c r="O6" t="n">
-        <v>8.221414498769395</v>
+        <v>8.226323877193794</v>
       </c>
       <c r="P6" t="n">
-        <v>350.973832765872</v>
+        <v>351.1405118582742</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31514,28 +31855,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.207508088570368</v>
+        <v>-0.2150987800207312</v>
       </c>
       <c r="J7" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K7" t="n">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02829378397766524</v>
+        <v>0.03056023893239568</v>
       </c>
       <c r="M7" t="n">
-        <v>6.364747224072272</v>
+        <v>6.389319261609805</v>
       </c>
       <c r="N7" t="n">
-        <v>68.24229630976191</v>
+        <v>68.51733548641484</v>
       </c>
       <c r="O7" t="n">
-        <v>8.260889559227984</v>
+        <v>8.277519887406784</v>
       </c>
       <c r="P7" t="n">
-        <v>359.6491825000473</v>
+        <v>359.7382092108582</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31592,28 +31933,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2180685766646655</v>
+        <v>-0.2291027655986252</v>
       </c>
       <c r="J8" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K8" t="n">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02780967884381391</v>
+        <v>0.03081346873361657</v>
       </c>
       <c r="M8" t="n">
-        <v>6.773902974278934</v>
+        <v>6.787611992897583</v>
       </c>
       <c r="N8" t="n">
-        <v>77.11278343905632</v>
+        <v>77.46332106882747</v>
       </c>
       <c r="O8" t="n">
-        <v>8.781388468747771</v>
+        <v>8.801324960983287</v>
       </c>
       <c r="P8" t="n">
-        <v>363.1190128804685</v>
+        <v>363.2482783637504</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31670,28 +32011,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1207959730036917</v>
+        <v>-0.1284196194608069</v>
       </c>
       <c r="J9" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K9" t="n">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009576978649854073</v>
+        <v>0.01091931959888592</v>
       </c>
       <c r="M9" t="n">
-        <v>6.432447484628276</v>
+        <v>6.432940998115259</v>
       </c>
       <c r="N9" t="n">
-        <v>70.09603373637746</v>
+        <v>70.19284751329171</v>
       </c>
       <c r="O9" t="n">
-        <v>8.372337411761274</v>
+        <v>8.378117181878737</v>
       </c>
       <c r="P9" t="n">
-        <v>364.2177870224143</v>
+        <v>364.3067444954645</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31748,28 +32089,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1092226833792544</v>
+        <v>-0.1114393147168785</v>
       </c>
       <c r="J10" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K10" t="n">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006661445548807987</v>
+        <v>0.007046193112825394</v>
       </c>
       <c r="M10" t="n">
-        <v>6.742699341636767</v>
+        <v>6.72069121119852</v>
       </c>
       <c r="N10" t="n">
-        <v>83.29200458198814</v>
+        <v>82.73362764478802</v>
       </c>
       <c r="O10" t="n">
-        <v>9.126445342080789</v>
+        <v>9.095802748784079</v>
       </c>
       <c r="P10" t="n">
-        <v>373.5207689093567</v>
+        <v>373.5466585755234</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31807,7 +32148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K652"/>
+  <dimension ref="A1:K659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64879,6 +65220,401 @@
         </is>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-45.26034241797203,170.86123330826825</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-45.26087309626531,170.86072454758113</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-45.26135665607534,170.8601540693474</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-45.26179014527926,170.8595735222348</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-45.262321287179205,170.85911769394176</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-45.262967677337194,170.85906137877177</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-45.26356248676355,170.85888095867793</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-45.264141430683644,170.85870411494506</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-45.26474126771756,170.85898344482487</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-45.2602275563541,170.86105598896123</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-45.26084950997773,170.8606949954191</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-45.261233845752805,170.8599855595288</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-45.26170153218786,170.85937678796083</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-45.26225291203819,170.85889282348592</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-45.26288853032608,170.8587156488525</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-45.26350694872786,170.8585051823875</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-45.264138146114995,170.85848109050332</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-45.260335197312266,170.8612221612357</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-45.26085227294323,170.8606984572425</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-45.26126880093722,170.86003352193538</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-45.26171104835288,170.85939791520116</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-45.26230262153961,170.85905630665602</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-45.26293042093165,170.85889863468194</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-45.263543842957574,170.8587548116822</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-45.26414275639533,170.85879414005527</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-45.26474522301961,170.8589050671347</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:36+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-45.26031041593046,170.86118390453422</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-45.26077868368183,170.8606062546449</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-45.26125865041496,170.8600195942794</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-45.2617039838104,170.85938223091017</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-45.26227984443364,170.85898139783893</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-45.26292184674641,170.85886118094672</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-45.26351600769627,170.85856647571845</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-45.26413907174201,170.85854393820927</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-45.26475098269799,170.85879093225537</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-45.260325891261836,170.86120779484773</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-45.26091177776114,170.86077301317974</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-45.26133651909592,170.8601264390347</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-45.26178983882756,170.859572841864</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-45.26232525078352,170.8591307294053</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-45.262964255085016,170.85904642957854</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-45.26353771657885,170.85871335983933</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-45.26414182340186,170.85873078276003</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-45.26474150717523,170.8589786997974</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-45.260353765962286,170.86125082695574</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-45.260878217858206,170.86073096462525</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-45.26130674856586,170.86008559040528</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-45.26173870972623,170.85945932747424</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-45.26230736254397,170.8590718987886</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-45.262923863114686,170.85886998883595</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-45.263540885339516,170.85873480005557</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-45.2641421173111,170.85875074115694</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-45.26474593069228,170.85889104388218</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:40+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-45.26036034362468,170.86126098135895</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-45.26087660051313,170.86072893819016</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-45.26130851819535,170.86008801854103</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-45.26175548395451,170.85949656876548</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-45.26230904872053,170.85907744425907</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-45.26293104064037,170.85890134169455</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-45.26352829741008,170.8586496287832</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>-45.26414105421862,170.8586785512122</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>-45.26474904357631,170.85882935851419</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K659"/>
+  <dimension ref="A1:K660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24098,6 +24098,45 @@
         <v>364.38</v>
       </c>
       <c r="K659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>341.9114285714285</v>
+      </c>
+      <c r="C660" t="n">
+        <v>343.51</v>
+      </c>
+      <c r="D660" t="n">
+        <v>353.4453846153846</v>
+      </c>
+      <c r="E660" t="n">
+        <v>345.0066666666667</v>
+      </c>
+      <c r="F660" t="n">
+        <v>350.3053846153846</v>
+      </c>
+      <c r="G660" t="n">
+        <v>353.0566666666667</v>
+      </c>
+      <c r="H660" t="n">
+        <v>362.4572727272728</v>
+      </c>
+      <c r="I660" t="n">
+        <v>364.6633333333334</v>
+      </c>
+      <c r="J660" t="n">
+        <v>370.1666666666667</v>
+      </c>
+      <c r="K660" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24114,7 +24153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B717"/>
+  <dimension ref="A1:B718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31292,6 +31331,16 @@
       </c>
       <c r="B717" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -32148,7 +32197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K659"/>
+  <dimension ref="A1:K660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65615,6 +65664,63 @@
         </is>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-45.260390729459395,170.86130789017153</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-45.26087417449542,170.8607258985377</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-45.261313573569225,170.8600949550982</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-45.26175803234585,170.85950222657897</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-45.262335567644506,170.85916465942933</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-45.26293735796586,170.85892893706526</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-45.26355079879239,170.8588018758621</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-45.26414214670183,170.85875273699668</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-45.26474533205691,170.85890290645233</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -31514,28 +31514,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1326215739320906</v>
+        <v>-0.1286992238972673</v>
       </c>
       <c r="J2" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003042068869171244</v>
+        <v>0.002873841959181167</v>
       </c>
       <c r="M2" t="n">
-        <v>12.61097565380713</v>
+        <v>12.60271499547056</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8463770734013</v>
+        <v>267.5180776804327</v>
       </c>
       <c r="O2" t="n">
-        <v>16.36601286426848</v>
+        <v>16.35597987527597</v>
       </c>
       <c r="P2" t="n">
-        <v>335.3933633972072</v>
+        <v>335.3471779554034</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31592,28 +31592,28 @@
         <v>0.0557</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1934950381476517</v>
+        <v>-0.194025759367758</v>
       </c>
       <c r="J3" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02247095017469192</v>
+        <v>0.02266905643424055</v>
       </c>
       <c r="M3" t="n">
-        <v>6.758111765499454</v>
+        <v>6.748691722509744</v>
       </c>
       <c r="N3" t="n">
-        <v>74.58858287422781</v>
+        <v>74.45878334344414</v>
       </c>
       <c r="O3" t="n">
-        <v>8.636468194477869</v>
+        <v>8.628950303683766</v>
       </c>
       <c r="P3" t="n">
-        <v>349.9943227345314</v>
+        <v>350.0005776129162</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31670,28 +31670,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08933894989224807</v>
+        <v>-0.08836299351629538</v>
       </c>
       <c r="J4" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005887585933961104</v>
+        <v>0.005779064396194022</v>
       </c>
       <c r="M4" t="n">
-        <v>6.141642868488952</v>
+        <v>6.135189099070899</v>
       </c>
       <c r="N4" t="n">
-        <v>62.84667658252395</v>
+        <v>62.74688570145294</v>
       </c>
       <c r="O4" t="n">
-        <v>7.927589582119142</v>
+        <v>7.921293183657132</v>
       </c>
       <c r="P4" t="n">
-        <v>353.0960850900784</v>
+        <v>353.0846467921035</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31748,28 +31748,28 @@
         <v>0.065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1460182259988105</v>
+        <v>-0.1458383232013867</v>
       </c>
       <c r="J5" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01519530142678027</v>
+        <v>0.01520914489224845</v>
       </c>
       <c r="M5" t="n">
-        <v>6.16909560806288</v>
+        <v>6.158851023559341</v>
       </c>
       <c r="N5" t="n">
-        <v>65.02426945492068</v>
+        <v>64.90713313510643</v>
       </c>
       <c r="O5" t="n">
-        <v>8.063762735529902</v>
+        <v>8.056496331229006</v>
       </c>
       <c r="P5" t="n">
-        <v>348.3225520653796</v>
+        <v>348.3204442400666</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31826,28 +31826,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2105211671805879</v>
+        <v>-0.2088250252182213</v>
       </c>
       <c r="J6" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02963965455922091</v>
+        <v>0.02925861847804279</v>
       </c>
       <c r="M6" t="n">
-        <v>6.239761783377106</v>
+        <v>6.236554670245805</v>
       </c>
       <c r="N6" t="n">
-        <v>67.67240453248873</v>
+        <v>67.58918253943928</v>
       </c>
       <c r="O6" t="n">
-        <v>8.226323877193794</v>
+        <v>8.221264047543983</v>
       </c>
       <c r="P6" t="n">
-        <v>351.1405118582742</v>
+        <v>351.120563307056</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31904,28 +31904,28 @@
         <v>0.0673</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2150987800207312</v>
+        <v>-0.2154924325126574</v>
       </c>
       <c r="J7" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03056023893239568</v>
+        <v>0.03077161547653051</v>
       </c>
       <c r="M7" t="n">
-        <v>6.389319261609805</v>
+        <v>6.379524299114527</v>
       </c>
       <c r="N7" t="n">
-        <v>68.51733548641484</v>
+        <v>68.39252740881915</v>
       </c>
       <c r="O7" t="n">
-        <v>8.277519887406784</v>
+        <v>8.26997747329575</v>
       </c>
       <c r="P7" t="n">
-        <v>359.7382092108582</v>
+        <v>359.7428425845113</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31982,28 +31982,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2291027655986252</v>
+        <v>-0.2271655342898858</v>
       </c>
       <c r="J8" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K8" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03081346873361657</v>
+        <v>0.03039403152109166</v>
       </c>
       <c r="M8" t="n">
-        <v>6.787611992897583</v>
+        <v>6.784608991170934</v>
       </c>
       <c r="N8" t="n">
-        <v>77.46332106882747</v>
+        <v>77.36834608622944</v>
       </c>
       <c r="O8" t="n">
-        <v>8.801324960983287</v>
+        <v>8.795927812700002</v>
       </c>
       <c r="P8" t="n">
-        <v>363.2482783637504</v>
+        <v>363.2255064339402</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32060,28 +32060,28 @@
         <v>0.0834</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1284196194608069</v>
+        <v>-0.1270549261750428</v>
       </c>
       <c r="J9" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K9" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01091931959888592</v>
+        <v>0.01072385402439135</v>
       </c>
       <c r="M9" t="n">
-        <v>6.432940998115259</v>
+        <v>6.42781328948691</v>
       </c>
       <c r="N9" t="n">
-        <v>70.19284751329171</v>
+        <v>70.08881804571688</v>
       </c>
       <c r="O9" t="n">
-        <v>8.378117181878737</v>
+        <v>8.371906476168787</v>
       </c>
       <c r="P9" t="n">
-        <v>364.3067444954645</v>
+        <v>364.290747227419</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32138,28 +32138,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1114393147168785</v>
+        <v>-0.1116081352573328</v>
       </c>
       <c r="J10" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K10" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007046193112825394</v>
+        <v>0.007091325642612389</v>
       </c>
       <c r="M10" t="n">
-        <v>6.72069121119852</v>
+        <v>6.709313141861336</v>
       </c>
       <c r="N10" t="n">
-        <v>82.73362764478802</v>
+        <v>82.58414324633277</v>
       </c>
       <c r="O10" t="n">
-        <v>9.095802748784079</v>
+        <v>9.087581815110815</v>
       </c>
       <c r="P10" t="n">
-        <v>373.5466585755234</v>
+        <v>373.5486304620038</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0481/nzd0481.xlsx
+++ b/data/nzd0481/nzd0481.xlsx
@@ -31505,13 +31505,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0633</v>
+        <v>0.066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0939</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1286987142725151</v>
@@ -31583,13 +31583,13 @@
         <v>0.1250779904258945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0492</v>
+        <v>0.0525</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0557</v>
+        <v>0.076</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1940257593677577</v>
@@ -31661,13 +31661,13 @@
         <v>0.2502497720756488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0594</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0898</v>
       </c>
       <c r="I4" t="n">
         <v>-0.08832262166119806</v>
@@ -31739,13 +31739,13 @@
         <v>0.3745516851384469</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.053</v>
+        <v>0.0493</v>
       </c>
       <c r="H5" t="n">
-        <v>0.065</v>
+        <v>0.0607</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1458597836400304</v>
@@ -31817,13 +31817,13 @@
         <v>0.4997998347867568</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0598</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2087830034241762</v>
@@ -31895,13 +31895,13 @@
         <v>0.6250427964320633</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0547</v>
+        <v>0.0488</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0673</v>
+        <v>0.0679</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2155180466339169</v>
@@ -31973,13 +31973,13 @@
         <v>0.7504246451448251</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0518</v>
+        <v>0.0796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.1489</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2271314345195495</v>
@@ -32051,13 +32051,13 @@
         <v>0.8752517436888761</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0809</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0834</v>
+        <v>0.1242</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1270265175300386</v>
@@ -32129,13 +32129,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0529</v>
+        <v>0.0709</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0644</v>
+        <v>0.0969</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1116363047364359</v>
